--- a/InfoTraining.xlsx
+++ b/InfoTraining.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\NLMH_BaoCao_PhathienKhoiUNao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3B0D12-434D-451F-A56B-8BE4A9569100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21074FC-8CE2-4103-BE00-20E811E61ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="13092" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dataset" sheetId="2" r:id="rId1"/>
+    <sheet name="Train" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Train!$A$2:$A$5</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Train!$E$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Train!$E$2:$E$5</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>ResNet101</t>
   </si>
@@ -57,13 +63,22 @@
   <si>
     <t>Độ chính xác (Accuracy) (%)</t>
   </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>Healthy</t>
+  </si>
+  <si>
+    <t>Tumor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -126,7 +141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -155,8 +170,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -177,6 +195,287 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="vi-VN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dataset!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Images</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dataset!$B$2:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Healthy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tumor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dataset!$C$2:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E684-4087-9973-DE061CFFA521}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="2049470944"/>
+        <c:axId val="2049464224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2049470944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="vi-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2049464224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2049464224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="vi-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2049470944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="vi-VN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -271,7 +570,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Train!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -293,7 +592,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>Train!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -313,7 +612,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:f>Train!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -536,7 +835,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -631,7 +930,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Train!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -653,7 +952,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>Train!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -673,7 +972,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:f>Train!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -865,7 +1164,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -960,7 +1259,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Train!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -982,7 +1281,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>Train!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1002,7 +1301,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$5</c:f>
+              <c:f>Train!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1194,11 +1493,366 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="vi-VN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Train!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thời gian đào tạo (Phút)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="vi-VN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Train!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ResNet101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>InceptionV3 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MobileNet </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DenseNet121</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Train!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>64.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.549999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F6C8-4BAA-9892-9E2D13AF23D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1633965552"/>
+        <c:axId val="1633960272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1633965552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="vi-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1633960272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1633960272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="vi-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1633965552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="vi-VN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -1232,13 +1886,10 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -1311,8 +1962,54 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1335,6 +2032,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -2793,7 +3501,1047 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>461010</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E35602E9-A908-632E-FD7B-001C601D10D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2898,6 +4646,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>94129</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>941294</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>147917</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864DF4CA-E6C5-3803-193E-BAF6604D3706}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3168,11 +4952,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9515E3E4-28CF-41D6-A4FD-7D38001FCEFE}">
+  <dimension ref="B1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
